--- a/agent/knowledge-base-assets/Internal-Insurance-FAQs.xlsx
+++ b/agent/knowledge-base-assets/Internal-Insurance-FAQs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kbuilder/Documents/GenAI/bedrock/amazon-bedrock-samples/agents/insurance-solution/agent/knowledge-base-assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongho/Documents/02. Customer Facing/03. AWS Services/GenAI/Demo/기초정보/8. claim agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{735C4EE8-284B-A849-A79E-E28FD678F9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F56A8F-25DB-5E4F-94DE-56926B2C2D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18040" yWindow="0" windowWidth="17800" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Insurance-FAQs" sheetId="1" r:id="rId1"/>
@@ -22,70 +22,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>_question</t>
-  </si>
-  <si>
-    <t>_answer</t>
-  </si>
-  <si>
-    <t>_source_uri</t>
-  </si>
-  <si>
-    <t>Frequently Asked Questions</t>
-  </si>
-  <si>
-    <t>How are policy premiums calculated based on the insured's driving history and claims record?</t>
-  </si>
-  <si>
-    <t>What are the specific coverage details and limitations for comprehensive and collision policies?</t>
-  </si>
-  <si>
-    <t>How can agents proactively suggest discounts or incentives to policyholders based on their driving behavior?</t>
-  </si>
-  <si>
-    <t>What is the process for adding a new driver to an existing policy, and how does it impact the overall policy cost?</t>
-  </si>
-  <si>
-    <t>In the event of a claim, what internal steps should agents follow to ensure a streamlined and efficient claims process?</t>
-  </si>
-  <si>
-    <t>How does the company internally assess and adjust policy rates based on factors like market trends and competition?</t>
-  </si>
-  <si>
-    <t>Premiums are calculated using a proprietary algorithm that considers factors such as driving history, claims frequency, vehicle type, and location. Our internal model analyzes historical data to assess risk and determine appropriate premium rates.</t>
-  </si>
-  <si>
-    <t>Comprehensive and collision policies have detailed coverage terms outlined in our internal documentation. Agents can refer to our policy handbook, which provides specifics on covered events, exclusions, and any special conditions that may apply.</t>
-  </si>
-  <si>
-    <t>Agents can leverage our internal data analytics tools to identify policyholders eligible for discounts based on safe driving behavior. These tools analyze driving patterns, accident history, and adherence to traffic rules to recommend suitable discounts, which agents can then communicate to policyholders.</t>
-  </si>
-  <si>
-    <t>Adding a new driver involves updating the policy in our internal system. The system automatically recalculates the premium based on the new driver's profile, considering factors such as age, driving history, and vehicle usage. Agents can provide an accurate cost estimate to the policyholder.</t>
-  </si>
-  <si>
-    <t>Agents should follow our internal claims handling protocol, initiating the process by collecting necessary information from the policyholder. This includes details about the incident, photos, and any supporting documents. Our internal claims system guides agents through each step, ensuring a smooth and efficient claims resolution.</t>
-  </si>
-  <si>
-    <t>Our internal rate-setting process involves regular analysis of market trends, competitor rates, and overall industry dynamics. Our dedicated pricing team uses sophisticated models to adjust rates, ensuring competitiveness while maintaining profitability. Agents can access updated rate information through our internal rate management system.</t>
+    <t>자주 묻는 질문</t>
+  </si>
+  <si>
+    <t>_질문</t>
+  </si>
+  <si>
+    <t>_답변</t>
+  </si>
+  <si>
+    <t>_소스_uri</t>
+  </si>
+  <si>
+    <t>보험 보험료는 피보험자의 운전 이력과 청구 기록을 기반으로 어떻게 계산되나요?</t>
+  </si>
+  <si>
+    <t>보험료는 운전 이력, 청구 빈도, 차량 유형 및 위치와 같은 요소를 고려하는 독점 알고리즘을 사용하여 계산됩니다. 당사의 내부 모델은 과거 데이터를 분석하여 위험을 평가하고 적절한 보험료 요율을 결정합니다.</t>
   </si>
   <si>
     <t>https://www.internal-anycompany.com/premuims</t>
   </si>
   <si>
+    <t>포괄적 및 충돌 보험의 구체적인 보장 세부 정보 및 한도는 무엇입니까?</t>
+  </si>
+  <si>
+    <t>포괄적 및 충돌 정책에는 내부 문서에 명시된 상세한 보장 조건이 명시되어 있습니다. 상담원은 적용 대상 이벤트, 제외 사항 및 적용될 수 있는 특수 조건에 대한 세부 정보를 제공하는 당사의 정책 핸드북을 참조할 수 있습니다.</t>
+  </si>
+  <si>
     <t>https://www.internal-anycompany.com/coverage</t>
   </si>
   <si>
+    <t>에이전트는 어떻게 보험 계약자의 운전 습관에 따라 사전에 할인이나 인센티브를 제안할 수 있습니까?</t>
+  </si>
+  <si>
+    <t>에이전트는 내부 데이터 분석 도구를 활용하여 안전 운전 습관을 기반으로 할인을 받을 자격이 있는 보험 계약자를 식별할 수 있습니다. 이러한 도구는 운전 패턴, 사고 이력, 교통 규칙 준수 등을 분석하여 적절한 할인을 권장하고, 에이전트는 보험 계약자에게 이를 알릴 수 있습니다.</t>
+  </si>
+  <si>
     <t>https://www.internal-anycompany.com/rates</t>
   </si>
   <si>
     <t>https://www.internal-anycompany.com/policy</t>
   </si>
   <si>
+    <t>클레임 발생 시, 효율적이고 효율적인 청구 절차를 위해 에이전트는 어떤 내부 조치를 취해야 하나요?</t>
+  </si>
+  <si>
+    <t>대리인은 당사의 내부 청구 처리 프로토콜을 준수하여 보험 계약자로부터 필요한 정보를 수집하여 절차를 시작해야 합니다. 여기에는 사고에 대한 세부 정보, 사진 및 기타 증빙 문서가 포함됩니다. 내부 청구 시스템은 상담원의 각 단계를 안내하여 원활하고 효율적인 청구 해결을 보장합니다.</t>
+  </si>
+  <si>
     <t>https://www.internal-anycompany.com/claims</t>
   </si>
   <si>
+    <t>회사는 시장 동향 및 경쟁과 같은 요인을 기반으로 정책금리를 내부적으로 어떻게 평가하고 조정합니까?</t>
+  </si>
+  <si>
+    <t>당사의 내부 금리 설정 프로세스에는 시장 동향, 경쟁사 요율 및 전반적인 업계 동향에 대한 정기적인 분석이 포함됩니다. 당사의 전담 가격 책정 팀은 정교한 모델을 사용하여 요금을 조정하여 수익성을 유지하면서 경쟁력을 보장합니다. 상담원은 내부 요금 관리 시스템을 통해 업데이트된 요금 정보에 액세스할 수 있습니다.</t>
+  </si>
+  <si>
     <t>https://www.internal-anycompany.com/deductibles</t>
+  </si>
+  <si>
+    <t>새로운 운전자를 추가하려면 내부 시스템의 정책을 업데이트해야 합니다. 시스템은 연령, 운전 기록, 차량 사용량 등의 요소를 고려하여 새 운전자의 프로필을 기반으로 보험료를 자동으로 다시 계산합니다. 에이전트는 보험 계약자에게 정확한 예상 비용을 제공할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>기존 보험계약에 새 운전자를 추가하는 프로세스는 무엇이며, 전체 정책 비용에 어떤 영향을 미칩니까?</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -945,97 +945,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="129.1640625" customWidth="1"/>
+    <col min="1" max="1" width="94.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="165.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
